--- a/xlsx/美国国旗_intext.xlsx
+++ b/xlsx/美国国旗_intext.xlsx
@@ -15,2007 +15,2004 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
   <si>
     <t>美国国旗</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97_(%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%AD%8C)</t>
+  </si>
+  <si>
+    <t>星条旗 (美国国歌)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E5%B8%9C%E5%90%8D%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>旗帜名称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E5%B8%9C%E5%AD%A6%E7%94%A8%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>旗帜学用语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E6%98%9F</t>
+  </si>
+  <si>
+    <t>五角星</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国的州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%B8%AA%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三个殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97</t>
+  </si>
+  <si>
+    <t>花旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%85%B6</t>
+  </si>
+  <si>
+    <t>美国国庆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%A4%AE%E8%BB%8A%E7%AB%99</t>
+  </si>
+  <si>
+    <t>大中央车站</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%89%B9%E8%A5%BF%C2%B7%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>贝特西·罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>乔治·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E4%B8%9C%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>不列颠东印度公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>行政命令 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%A4%A7%E5%8E%A6</t>
+  </si>
+  <si>
+    <t>美国国会大厦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Lab%E8%89%B2%E5%BD%A9%E7%A9%BA%E9%97%B4</t>
+  </si>
+  <si>
+    <t>Lab色彩空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%A1%9E%E5%B0%94%E9%A2%9C%E8%89%B2%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>孟塞尔颜色系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SRGB%E8%89%B2%E5%BD%A9%E7%A9%BA%E9%97%B4</t>
+  </si>
+  <si>
+    <t>SRGB色彩空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E5%9B%9B%E5%88%86%E8%89%B2%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>印刷四分色模式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E9%80%9A</t>
+  </si>
+  <si>
+    <t>彩通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E8%8B%B1%E5%9C%8B%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国驻英国大使馆</t>
+  </si>
+  <si>
+    <t>https://sv.wikipedia.org/wiki/Sveriges_ambassad_i_Washington</t>
+  </si>
+  <si>
+    <t>sv-Sveriges ambassad i Washington</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>英国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A1%E5%85%B5%E7%B4%80%E5%BF%B5%E6%97%A5</t>
+  </si>
+  <si>
+    <t>亡兵纪念日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D%E5%86%9B%E4%BA%BA%E8%8A%82</t>
+  </si>
+  <si>
+    <t>退伍军人节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国国旗日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%94%9F%E6%97%A5</t>
+  </si>
+  <si>
+    <t>华盛顿生日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国独立日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E6%97%97</t>
+  </si>
+  <si>
+    <t>船旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1908%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>1908年夏季奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%E4%B8%83%E4%B8%96_(%E8%8B%B1%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>爱德华七世 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E5%BF%A0%E5%AE%A3%E8%AA%93</t>
+  </si>
+  <si>
+    <t>效忠宣誓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%97%A6</t>
+  </si>
+  <si>
+    <t>元旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91%E7%BA%AA%E5%BF%B5%E6%97%A5</t>
+  </si>
+  <si>
+    <t>马丁·路德·金纪念日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%B0%B1%E8%81%8C%E5%85%B8%E7%A4%BC</t>
+  </si>
+  <si>
+    <t>美国总统就职典礼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E7%AF%80</t>
+  </si>
+  <si>
+    <t>总统节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E8%8A%82</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%A5</t>
+  </si>
+  <si>
+    <t>哥伦布日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E6%81%A9%E8%8A%82</t>
+  </si>
+  <si>
+    <t>感恩节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E6%97%A5</t>
+  </si>
+  <si>
+    <t>爱国日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>珍珠港事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国首席大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%90%8D%E5%A1%9A</t>
+  </si>
+  <si>
+    <t>无名冢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%A2%93</t>
+  </si>
+  <si>
+    <t>阿灵顿国家公墓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%8F%B7%E6%88%98%E5%88%97%E8%88%B0%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国海军亚利桑那号战列舰纪念馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E7%94%9F%E4%B8%8D%E8%80%81</t>
+  </si>
+  <si>
+    <t>长生不老</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E7%AF%87%E7%AC%AC23%E7%AF%87</t>
+  </si>
+  <si>
+    <t>诗篇第23篇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国犹太人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF</t>
+  </si>
+  <si>
+    <t>耶和华</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
+  </si>
+  <si>
+    <t>基督徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
+  </si>
+  <si>
+    <t>三位一体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>我们信仰上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德拉瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布夏州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗莱那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗得岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗莱那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱荷华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%94%E5%8D%81%E4%B8%80%E6%98%9F%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国五十一星国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%AF%89%E7%BA%A6%E7%BF%B0%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>德克萨斯州诉约翰逊案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>利比里亚国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>马来西亚国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>赖比瑞亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4</t>
+  </si>
+  <si>
+    <t>黑奴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Flags_of_the_World</t>
+  </si>
+  <si>
+    <t>Flags of the World</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/California</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/National_Public_Radio</t>
+  </si>
+  <si>
+    <t>National Public Radio</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美利坚联盟国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>星条旗报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>Template talk-美洲题目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>阿根廷国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>巴巴多斯国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>巴哈马国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>巴拉圭国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>巴拿马国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>巴西国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>秘鲁国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>玻利维亚国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>伯利兹国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>多明尼加共和国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>多米尼克国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>厄瓜多尔国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>哥伦比亚国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>哥斯达黎加国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>格林纳达国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>圭亚那国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>古巴国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>海地国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>洪都拉斯国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>加拿大国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>墨西哥国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>尼加拉瓜国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>萨尔瓦多国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>圣卢西亚国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>苏里南国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>危地马拉国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>委内瑞拉国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>乌拉圭国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>牙买加国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>智利国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>阿鲁巴国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>安圭拉国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>百慕大国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>福克兰群岛国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>格陵兰国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>库拉索国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>英属维尔京群岛国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97_(%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%AD%8C)</t>
-  </si>
-  <si>
-    <t>星條旗 (美國國歌)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E5%B8%9C%E5%90%8D%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>旗帜名称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E5%B8%9C%E5%AD%A6%E7%94%A8%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>旗帜学用语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E6%98%9F</t>
-  </si>
-  <si>
-    <t>五角星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美国的州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%B8%AA%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三个殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97</t>
-  </si>
-  <si>
-    <t>花旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%85%B6</t>
-  </si>
-  <si>
-    <t>美國國慶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%A4%AE%E8%BB%8A%E7%AB%99</t>
-  </si>
-  <si>
-    <t>大中央車站</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%89%B9%E8%A5%BF%C2%B7%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>贝特西·罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·华盛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E4%B8%9C%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>不列颠东印度公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美國法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>行政命令 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%A4%A7%E5%8E%A6</t>
-  </si>
-  <si>
-    <t>美国国会大厦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Lab%E8%89%B2%E5%BD%A9%E7%A9%BA%E9%97%B4</t>
-  </si>
-  <si>
-    <t>Lab色彩空间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%A1%9E%E5%B0%94%E9%A2%9C%E8%89%B2%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>孟塞尔颜色系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SRGB%E8%89%B2%E5%BD%A9%E7%A9%BA%E9%97%B4</t>
-  </si>
-  <si>
-    <t>SRGB色彩空间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7%E5%9B%9B%E5%88%86%E8%89%B2%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>印刷四分色模式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E9%80%9A</t>
-  </si>
-  <si>
-    <t>彩通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E8%8B%B1%E5%9C%8B%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國駐英國大使館</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Sveriges_ambassad_i_Washington</t>
-  </si>
-  <si>
-    <t>sv-Sveriges ambassad i Washington</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>英国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A1%E5%85%B5%E7%B4%80%E5%BF%B5%E6%97%A5</t>
-  </si>
-  <si>
-    <t>亡兵紀念日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D%E5%86%9B%E4%BA%BA%E8%8A%82</t>
-  </si>
-  <si>
-    <t>退伍军人节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国国旗日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%94%9F%E6%97%A5</t>
-  </si>
-  <si>
-    <t>华盛顿生日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国独立日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E6%97%97</t>
-  </si>
-  <si>
-    <t>船旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1908%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>1908年夏季奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%E4%B8%83%E4%B8%96_(%E8%8B%B1%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>爱德华七世 (英国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E5%BF%A0%E5%AE%A3%E8%AA%93</t>
-  </si>
-  <si>
-    <t>效忠宣誓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%97%A6</t>
-  </si>
-  <si>
-    <t>元旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91%E7%BA%AA%E5%BF%B5%E6%97%A5</t>
-  </si>
-  <si>
-    <t>马丁·路德·金纪念日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%B0%B1%E8%81%8C%E5%85%B8%E7%A4%BC</t>
-  </si>
-  <si>
-    <t>美国总统就职典礼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E7%AF%80</t>
-  </si>
-  <si>
-    <t>總統節</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E8%8A%82</t>
-  </si>
-  <si>
-    <t>劳动节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%A5</t>
-  </si>
-  <si>
-    <t>哥伦布日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E6%81%A9%E8%8A%82</t>
-  </si>
-  <si>
-    <t>感恩节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
-  </si>
-  <si>
-    <t>圣诞节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E6%97%A5</t>
-  </si>
-  <si>
-    <t>愛國日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>珍珠港事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国首席大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美國最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%90%8D%E5%A1%9A</t>
-  </si>
-  <si>
-    <t>無名塚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%A2%93</t>
-  </si>
-  <si>
-    <t>阿灵顿国家公墓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%8F%B7%E6%88%98%E5%88%97%E8%88%B0%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国海军亚利桑那号战列舰纪念馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E7%94%9F%E4%B8%8D%E8%80%81</t>
-  </si>
-  <si>
-    <t>长生不老</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E7%AF%87%E7%AC%AC23%E7%AF%87</t>
-  </si>
-  <si>
-    <t>诗篇第23篇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国犹太人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF</t>
-  </si>
-  <si>
-    <t>耶和華</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
-  </si>
-  <si>
-    <t>基督徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
-  </si>
-  <si>
-    <t>三位一體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E4%BF%A1%E4%BB%B0%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>我们信仰上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德拉瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>馬里蘭州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布夏州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐澤西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紐約州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡羅萊那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>賓夕法尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>罗得岛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡羅萊那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田納西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利諾州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉巴馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>緬因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛羅里達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>愛荷華州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧勒岡州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內華達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>愛達荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北達科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南達科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>華盛頓州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>猶他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%94%E5%8D%81%E4%B8%80%E6%98%9F%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>美國五十一星國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>美國陸軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%AF%89%E7%BA%A6%E7%BF%B0%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>德克萨斯州诉约翰逊案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>利比里亚国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>马来西亚国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>賴比瑞亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4</t>
-  </si>
-  <si>
-    <t>黑奴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>馬來西亞國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Flags_of_the_World</t>
-  </si>
-  <si>
-    <t>Flags of the World</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/California</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/National_Public_Radio</t>
-  </si>
-  <si>
-    <t>National Public Radio</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美利坚联盟国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>星條旗報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>Template talk-美洲题目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>阿根廷国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>巴巴多斯国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>巴哈马国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>巴拉圭國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>巴拿马国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>巴西国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>秘鲁国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>玻利维亚国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>伯利兹国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>多明尼加共和国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>多米尼克國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>厄瓜多尔国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>哥伦比亚国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>哥斯达黎加国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>格林納達國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>圭亚那国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>古巴國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>海地國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>洪都拉斯国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>加拿大国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>墨西哥国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>尼加拉瓜國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>萨尔瓦多国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%BB%B4%E6%96%AF%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>圣卢西亚国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>苏里南国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>危地马拉国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>委内瑞拉国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>乌拉圭国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>牙買加國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>智利國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>阿魯巴國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>安圭拉国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>百慕大国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>福克兰群岛国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>格陵蘭國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>库拉索国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>英屬維爾京群島國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3314,7 @@
         <v>62</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -6304,7 +6301,7 @@
         <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6388,7 +6385,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6414,10 +6411,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6443,10 +6440,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>6</v>
@@ -6472,10 +6469,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6501,10 +6498,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6530,10 +6527,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6559,10 +6556,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6588,10 +6585,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6617,10 +6614,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6646,10 +6643,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6675,10 +6672,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6704,10 +6701,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6733,10 +6730,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6762,10 +6759,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6791,10 +6788,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6820,10 +6817,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6849,10 +6846,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6878,10 +6875,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6907,10 +6904,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6936,10 +6933,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6965,10 +6962,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6994,10 +6991,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7023,10 +7020,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7052,10 +7049,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7081,10 +7078,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7110,10 +7107,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7139,10 +7136,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7168,10 +7165,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7197,10 +7194,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7226,10 +7223,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7255,10 +7252,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7284,10 +7281,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7313,10 +7310,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7342,10 +7339,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7371,10 +7368,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7400,10 +7397,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7429,10 +7426,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7458,10 +7455,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7487,10 +7484,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7516,10 +7513,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7545,10 +7542,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7574,10 +7571,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7603,10 +7600,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7632,10 +7629,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7661,10 +7658,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7690,10 +7687,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7719,10 +7716,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7748,10 +7745,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7777,10 +7774,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7806,10 +7803,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7835,10 +7832,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7864,10 +7861,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7893,10 +7890,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7922,10 +7919,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7951,10 +7948,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7980,10 +7977,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8009,10 +8006,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>6</v>
@@ -8038,10 +8035,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8067,10 +8064,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8096,10 +8093,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8125,10 +8122,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8154,10 +8151,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8212,10 +8209,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8241,10 +8238,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8270,10 +8267,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8299,10 +8296,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8328,10 +8325,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8357,10 +8354,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8386,10 +8383,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8415,10 +8412,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8444,10 +8441,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8473,10 +8470,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8502,10 +8499,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8531,10 +8528,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8560,10 +8557,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8618,10 +8615,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8647,10 +8644,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8676,10 +8673,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8705,10 +8702,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8734,10 +8731,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8763,10 +8760,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8792,10 +8789,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8821,10 +8818,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8850,10 +8847,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8879,10 +8876,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8937,10 +8934,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8966,10 +8963,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8995,10 +8992,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9024,10 +9021,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9053,10 +9050,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9082,10 +9079,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9111,10 +9108,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9140,10 +9137,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9169,10 +9166,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9198,10 +9195,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9227,10 +9224,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9256,10 +9253,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9285,10 +9282,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9314,10 +9311,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9343,10 +9340,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9372,10 +9369,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9401,10 +9398,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9430,10 +9427,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9459,10 +9456,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -9488,10 +9485,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9517,10 +9514,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -9546,10 +9543,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9575,10 +9572,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9604,10 +9601,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>4</v>
@@ -9633,10 +9630,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9662,10 +9659,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9691,10 +9688,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9720,10 +9717,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9749,10 +9746,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9778,10 +9775,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9807,10 +9804,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9836,10 +9833,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9865,10 +9862,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9894,10 +9891,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9923,10 +9920,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9952,10 +9949,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9981,10 +9978,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10010,10 +10007,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10039,10 +10036,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10068,10 +10065,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10097,10 +10094,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10126,10 +10123,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10155,10 +10152,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10184,10 +10181,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10213,10 +10210,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10242,10 +10239,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10271,10 +10268,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10300,10 +10297,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10329,10 +10326,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10358,10 +10355,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10387,10 +10384,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10416,10 +10413,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10445,10 +10442,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10474,10 +10471,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10503,10 +10500,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10532,10 +10529,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10561,10 +10558,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10590,10 +10587,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10619,10 +10616,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10648,10 +10645,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10677,10 +10674,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10706,10 +10703,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10735,10 +10732,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10764,10 +10761,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10793,10 +10790,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10822,10 +10819,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10851,10 +10848,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10880,10 +10877,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10909,10 +10906,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10938,10 +10935,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10967,10 +10964,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -10996,10 +10993,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11025,10 +11022,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11054,10 +11051,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11083,10 +11080,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11112,10 +11109,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11141,10 +11138,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11170,10 +11167,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11199,10 +11196,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G305" t="n">
         <v>5</v>
@@ -11228,10 +11225,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -11257,10 +11254,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11286,10 +11283,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G308" t="n">
         <v>4</v>
@@ -11315,10 +11312,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11344,10 +11341,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11373,10 +11370,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11402,10 +11399,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11431,10 +11428,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11460,10 +11457,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11489,10 +11486,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11518,10 +11515,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11547,10 +11544,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11576,10 +11573,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11605,10 +11602,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11634,10 +11631,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11663,10 +11660,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11692,10 +11689,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>4</v>
@@ -11721,10 +11718,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11750,10 +11747,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11779,10 +11776,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11808,10 +11805,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11837,10 +11834,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11866,10 +11863,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11895,10 +11892,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11924,10 +11921,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -11953,10 +11950,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11982,10 +11979,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12011,10 +12008,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12040,10 +12037,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12069,10 +12066,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12098,10 +12095,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12127,10 +12124,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12156,10 +12153,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12185,10 +12182,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12214,10 +12211,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12243,18 +12240,76 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>661</v>
+      </c>
+      <c r="F341" t="s">
+        <v>662</v>
+      </c>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" t="s">
+        <v>4</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>341</v>
+      </c>
+      <c r="E342" t="s">
+        <v>663</v>
+      </c>
+      <c r="F342" t="s">
+        <v>664</v>
+      </c>
+      <c r="G342" t="n">
+        <v>5</v>
+      </c>
+      <c r="H342" t="s">
+        <v>4</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>342</v>
+      </c>
+      <c r="E343" t="s">
+        <v>663</v>
+      </c>
+      <c r="F343" t="s">
         <v>665</v>
       </c>
-      <c r="F341" t="s">
-        <v>666</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1</v>
-      </c>
-      <c r="H341" t="s">
-        <v>4</v>
-      </c>
-      <c r="I341" t="n">
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+      <c r="H343" t="s">
+        <v>4</v>
+      </c>
+      <c r="I343" t="n">
         <v>3</v>
       </c>
     </row>
